--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tester" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>a</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>adding</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>six</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +520,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
